--- a/2월/02_04_01_포트폴리오_리엑트/비율계산.xlsx
+++ b/2월/02_04_01_포트폴리오_리엑트/비율계산.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\front_study_novice\1월\01_17_02_포트폴리오제작_스타벅스_반응형_헤더영역_슬라이더_반응형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\front_study_novice\2월\02_04_01_포트폴리오_리엑트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9484C4-1AA1-4CFC-9285-36BA1A1F3554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372B727-4C0C-4D08-BA94-CBC0AA737840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="1590" windowWidth="21600" windowHeight="11385" xr2:uid="{715FEDF0-C8A2-48C2-A51B-BFF25C1D8AC7}"/>
+    <workbookView xWindow="5850" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{715FEDF0-C8A2-48C2-A51B-BFF25C1D8AC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ani1</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>slide-view</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션6번</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +197,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,13 +520,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7930C77-02F5-4FF9-9E5C-B0A10B3AABE8}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M1" t="s">
@@ -741,6 +754,55 @@
       <c r="D13" s="3">
         <f>C13/C10</f>
         <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.2165</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16">
+        <v>412</v>
+      </c>
+      <c r="E16" s="5">
+        <f>D16/C16</f>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G16">
+        <v>693</v>
+      </c>
+      <c r="H16" s="5">
+        <f>G16/C16</f>
+        <v>0.34649999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17/C17</f>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="G17">
+        <v>92</v>
+      </c>
+      <c r="H17" s="5">
+        <f>G17/C17</f>
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
